--- a/biology/Médecine/Os_articulaire/Os_articulaire.xlsx
+++ b/biology/Médecine/Os_articulaire/Os_articulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os articulaire fait partie de la mâchoire inférieure de la plupart des vertébrés, y compris la plupart des poissons à mâchoires, des amphibiens, des oiseaux et de divers types de reptiles, ainsi que des mammifères ancestraux.
 </t>
@@ -511,11 +523,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez la plupart des vertébrés, l'os articulaire est relié à deux autres os de la mâchoire inférieure, le supraangulaire et l'angulaire[1]. Sur le plan du développement, il provient du cartilage mandibulaire embryonnaire. La partie la plus caudale du cartilage mandibulaire s'ossifie pour former l'os articulaire, tandis que le reste du cartilage mandibulaire reste cartilagineux ou disparaît[1].
-Chez les serpents
-Chez les serpents, les os articulaires, surangulaires et préarticulaires ont fusionné pour former l'os composé. La mandibule est suspendue à l'os carré et s'articule au niveau de cet os composé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la plupart des vertébrés, l'os articulaire est relié à deux autres os de la mâchoire inférieure, le supraangulaire et l'angulaire. Sur le plan du développement, il provient du cartilage mandibulaire embryonnaire. La partie la plus caudale du cartilage mandibulaire s'ossifie pour former l'os articulaire, tandis que le reste du cartilage mandibulaire reste cartilagineux ou disparaît.
 </t>
         </is>
       </c>
@@ -541,16 +553,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chez les serpents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les serpents, les os articulaires, surangulaires et préarticulaires ont fusionné pour former l'os composé. La mandibule est suspendue à l'os carré et s'articule au niveau de cet os composé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Os_articulaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_articulaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les amphibiens et les reptiles
-Chez la plupart des tétrapodes, l'os articulaire forme la partie inférieure de l'articulation de la mâchoire. La mâchoire supérieure s'articule au niveau de l'os carré[3].
-Chez les mammifères
-Chez les mammifères, l'os articulaire évolue pour former le marteau, l'un des osselets des mammifères de l'oreille moyenne. Il s'agit d'une apomorphie du clade de mammifères[4], et est utilisé pour déterminer la transition fossile vers les mammifères[2]. Il est analogue mais non homologue au processus articulaire de la mâchoire inférieure.
-Après la perte de l'articulation carrée-articulaire, les os squamosal et dentaire forment la nouvelle articulation de la mâchoire chez les mammifères[5].
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez les amphibiens et les reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la plupart des tétrapodes, l'os articulaire forme la partie inférieure de l'articulation de la mâchoire. La mâchoire supérieure s'articule au niveau de l'os carré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Os_articulaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_articulaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez les mammifères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les mammifères, l'os articulaire évolue pour former le marteau, l'un des osselets des mammifères de l'oreille moyenne. Il s'agit d'une apomorphie du clade de mammifères, et est utilisé pour déterminer la transition fossile vers les mammifères. Il est analogue mais non homologue au processus articulaire de la mâchoire inférieure.
+Après la perte de l'articulation carrée-articulaire, les os squamosal et dentaire forment la nouvelle articulation de la mâchoire chez les mammifères.
 </t>
         </is>
       </c>
